--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80242098.CWWPVT\Desktop\CICD\CICD\Final Product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sebi\UiPath\JenkinsPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72095223-9C19-48B5-896B-797370B802D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E1968-38BB-4F79-B3DF-FD00FBF35F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueueConfiguration" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>QueueName</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>SyamTestQueue</t>
+  </si>
+  <si>
+    <t>sebi</t>
   </si>
 </sst>
 </file>
@@ -431,21 +434,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -488,7 +491,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -504,20 +507,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -525,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -549,18 +552,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -583,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -618,15 +621,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A2B19C3B9F7BD418052C88B70E24492" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57303f24e4d888012497bf75dfc447c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a276904-0918-4740-a913-dcab6a540cc1" xmlns:ns3="031378ae-3374-4dfc-95e6-3d0953cec7a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3dc97bb125b2eac8a9c63a52dd920d1" ns2:_="" ns3:_="">
     <xsd:import namespace="2a276904-0918-4740-a913-dcab6a540cc1"/>
@@ -817,6 +811,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79F2EC0E-500D-4EC2-88FB-148B19AFDF78}">
   <ds:schemaRefs>
@@ -827,14 +830,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5479C6AF-EB95-4333-AC9C-1A6282D4E1D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E829609-BE30-428C-B8C9-D5AA28D0B908}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -851,4 +846,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5479C6AF-EB95-4333-AC9C-1A6282D4E1D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sebi\UiPath\JenkinsPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E1968-38BB-4F79-B3DF-FD00FBF35F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA3F8F8-8D22-49E0-B533-041964C505B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24330" yWindow="6405" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueueConfiguration" sheetId="2" r:id="rId1"/>
-    <sheet name="TeamDetails" sheetId="4" r:id="rId2"/>
-    <sheet name="ScheduleConfiguration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>QueueName</t>
   </si>
@@ -53,49 +51,7 @@
     <t>$true</t>
   </si>
   <si>
-    <t>ProcessName</t>
-  </si>
-  <si>
-    <t>ProcessCron</t>
-  </si>
-  <si>
-    <t>ScheduleName</t>
-  </si>
-  <si>
-    <t>RobotCount</t>
-  </si>
-  <si>
-    <t>0 0 9-17 ? * MON,WED,FRI</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Use Cron Builder Tools to build process cron (e.g. https://crontab.cronhub.io/)</t>
-  </si>
-  <si>
     <t>FolderName</t>
-  </si>
-  <si>
-    <t>Process Mining</t>
-  </si>
-  <si>
-    <t>DeveloperEmail</t>
-  </si>
-  <si>
-    <t>ManagerEmail</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>India Standard Time</t>
-  </si>
-  <si>
-    <t>Syam.ReddyMekala@pepsico.com</t>
-  </si>
-  <si>
-    <t>SyamTest</t>
   </si>
   <si>
     <t>SyamTestQueue</t>
@@ -108,18 +64,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,17 +90,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,12 +413,12 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -491,7 +436,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,125 +444,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F7326C-9096-475F-AF54-B8556856B2B9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CE865FC6-E91C-4347-AC57-8A0FAEA9ADE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ECB17F-009C-4295-B903-17F31F084791}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,19 +645,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79F2EC0E-500D-4EC2-88FB-148B19AFDF78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5479C6AF-EB95-4333-AC9C-1A6282D4E1D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -849,9 +678,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5479C6AF-EB95-4333-AC9C-1A6282D4E1D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79F2EC0E-500D-4EC2-88FB-148B19AFDF78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>